--- a/江西/导出模板/市场化,月度交易合同分析结果.xlsx
+++ b/江西/导出模板/市场化,月度交易合同分析结果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\python\calCase\江西\导出模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFB8C68C-C235-4F71-9D5D-D1DE443C17E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{508D7F34-0716-4507-9148-83AACEC64F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8976" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="汇总统计" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="50">
   <si>
     <t>数据项</t>
   </si>
@@ -129,7 +129,10 @@
     <t>峰平谷统计</t>
   </si>
   <si>
-    <t>机组名称</t>
+    <t>合同类型</t>
+  </si>
+  <si>
+    <t>中长期持仓均价-中长期折算日前加权均价（元/MWh）</t>
   </si>
   <si>
     <t>合同电费</t>
@@ -257,20 +260,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="46" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -280,6 +283,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -299,7 +370,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -555,60 +626,60 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="29.6328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.36328125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="20.6328125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="34" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.36328125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="20.6328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="34" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1">
         <v>395.64317780000016</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>385.66590640499999</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>9.9772713950001641</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>8644.69</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>457.67190934550587</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>446.13040653279637</v>
       </c>
     </row>
@@ -625,867 +696,867 @@
   </sheetPr>
   <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.36328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20" style="2" customWidth="1"/>
-    <col min="28" max="28" width="11" style="2"/>
+    <col min="1" max="1" width="10.36328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="1" customWidth="1"/>
+    <col min="28" max="28" width="11" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="4">
+      <c r="AB1" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>45000</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="2">
+      <c r="B2" s="5"/>
+      <c r="C2" s="1">
         <v>2076455.952</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="D2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="1">
         <v>59637.476999999999</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>87646.357999999993</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>96663.446999999986</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>89055.350999999995</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>104993.12599999999</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>82986.42</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>84933.063999999998</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>55475.585999999996</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>73277.659</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <v>70449.615999999995</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="1">
         <v>74762.951000000001</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="1">
         <v>119347.836</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="1">
         <v>75799.968000000008</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="1">
         <v>113990.15</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="1">
         <v>75045.618000000002</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="1">
         <v>111736.692</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="1">
         <v>79562.141000000003</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2" s="1">
         <v>94443.127999999997</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2" s="1">
         <v>99930.97</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="1">
         <v>80888.091000000015</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2" s="1">
         <v>123936.98300000001</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z2" s="1">
         <v>65728.301000000007</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AA2" s="1">
         <v>59031.815999999999</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AB2" s="1">
         <v>97133.202999999994</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>45000</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="2">
+      <c r="B3" s="5"/>
+      <c r="C3" s="1">
+        <v>4137.4100000000008</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>131.19</v>
+      </c>
+      <c r="F3" s="1">
+        <v>147</v>
+      </c>
+      <c r="G3" s="1">
+        <v>195.22</v>
+      </c>
+      <c r="H3" s="1">
+        <v>174.73000000000002</v>
+      </c>
+      <c r="I3" s="1">
+        <v>230.14</v>
+      </c>
+      <c r="J3" s="1">
+        <v>182.15999999999997</v>
+      </c>
+      <c r="K3" s="1">
+        <v>149.44</v>
+      </c>
+      <c r="L3" s="1">
+        <v>103.44999999999999</v>
+      </c>
+      <c r="M3" s="1">
+        <v>160.14999999999998</v>
+      </c>
+      <c r="N3" s="1">
+        <v>173</v>
+      </c>
+      <c r="O3" s="1">
+        <v>167.07</v>
+      </c>
+      <c r="P3" s="1">
+        <v>160.13999999999999</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>154.63</v>
+      </c>
+      <c r="R3" s="1">
+        <v>226.99</v>
+      </c>
+      <c r="S3" s="1">
+        <v>167.01</v>
+      </c>
+      <c r="T3" s="1">
+        <v>235.81</v>
+      </c>
+      <c r="U3" s="1">
+        <v>118.28</v>
+      </c>
+      <c r="V3" s="1">
+        <v>230.20999999999998</v>
+      </c>
+      <c r="W3" s="1">
+        <v>173.79000000000002</v>
+      </c>
+      <c r="X3" s="1">
+        <v>194.49</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>170.86</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>146.24</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>156.38</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>189.03</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>45000</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="1">
         <v>501.8733826234286</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="1">
+        <v>454.58858906928884</v>
+      </c>
+      <c r="F4" s="1">
+        <v>596.23372789115638</v>
+      </c>
+      <c r="G4" s="1">
+        <v>495.1513523204589</v>
+      </c>
+      <c r="H4" s="1">
+        <v>509.67407428604122</v>
+      </c>
+      <c r="I4" s="1">
+        <v>456.21415660033023</v>
+      </c>
+      <c r="J4" s="1">
+        <v>455.56884057971024</v>
+      </c>
+      <c r="K4" s="1">
+        <v>568.34223768736615</v>
+      </c>
+      <c r="L4" s="1">
+        <v>536.25506041565973</v>
+      </c>
+      <c r="M4" s="1">
+        <v>457.5564096159851</v>
+      </c>
+      <c r="N4" s="1">
+        <v>407.22321387283233</v>
+      </c>
+      <c r="O4" s="1">
+        <v>447.4947686598432</v>
+      </c>
+      <c r="P4" s="1">
+        <v>745.27186212064453</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>490.20221173122945</v>
+      </c>
+      <c r="R4" s="1">
+        <v>502.18137362879418</v>
+      </c>
+      <c r="S4" s="1">
+        <v>449.34805101490934</v>
+      </c>
+      <c r="T4" s="1">
+        <v>473.84204232220856</v>
+      </c>
+      <c r="U4" s="1">
+        <v>672.65929151166722</v>
+      </c>
+      <c r="V4" s="1">
+        <v>410.24772164545419</v>
+      </c>
+      <c r="W4" s="1">
+        <v>575.00989700212892</v>
+      </c>
+      <c r="X4" s="1">
+        <v>415.89845750424195</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>725.37154980685943</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>449.45501230853392</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>377.48955109349021</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>513.85072739776751</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>45000</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="1">
+        <v>462.23389077949724</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="1">
+        <v>345.3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>301.74999999999994</v>
+      </c>
+      <c r="G5" s="1">
+        <v>284.75</v>
+      </c>
+      <c r="H5" s="1">
+        <v>252.75</v>
+      </c>
+      <c r="I5" s="1">
+        <v>262.25</v>
+      </c>
+      <c r="J5" s="1">
+        <v>302.75</v>
+      </c>
+      <c r="K5" s="1">
+        <v>401.05</v>
+      </c>
+      <c r="L5" s="1">
+        <v>489.25000000000006</v>
+      </c>
+      <c r="M5" s="1">
+        <v>528.75000000000011</v>
+      </c>
+      <c r="N5" s="1">
+        <v>509.25</v>
+      </c>
+      <c r="O5" s="1">
+        <v>448.35000000000008</v>
+      </c>
+      <c r="P5" s="1">
+        <v>399.20000000000005</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>294</v>
+      </c>
+      <c r="R5" s="1">
+        <v>315</v>
+      </c>
+      <c r="S5" s="1">
+        <v>376.15</v>
+      </c>
+      <c r="T5" s="1">
+        <v>477.80000000000007</v>
+      </c>
+      <c r="U5" s="1">
+        <v>585.5</v>
+      </c>
+      <c r="V5" s="1">
+        <v>668</v>
+      </c>
+      <c r="W5" s="1">
+        <v>756.24999999999989</v>
+      </c>
+      <c r="X5" s="1">
+        <v>749.5</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>741.99999999999989</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>669.74999999999989</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>555.37249999999995</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>429.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>45000</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="1">
+        <v>39.639491843931353</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="1">
+        <v>109.28858906928883</v>
+      </c>
+      <c r="F6" s="1">
+        <v>294.48372789115643</v>
+      </c>
+      <c r="G6" s="1">
+        <v>210.4013523204589</v>
+      </c>
+      <c r="H6" s="1">
+        <v>256.92407428604122</v>
+      </c>
+      <c r="I6" s="1">
+        <v>193.96415660033023</v>
+      </c>
+      <c r="J6" s="1">
+        <v>152.81884057971024</v>
+      </c>
+      <c r="K6" s="1">
+        <v>167.29223768736614</v>
+      </c>
+      <c r="L6" s="1">
+        <v>47.005060415659671</v>
+      </c>
+      <c r="M6" s="1">
+        <v>-71.19359038401501</v>
+      </c>
+      <c r="N6" s="1">
+        <v>-102.02678612716767</v>
+      </c>
+      <c r="O6" s="1">
+        <v>-0.85523134015687674</v>
+      </c>
+      <c r="P6" s="1">
+        <v>346.07186212064448</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>196.20221173122945</v>
+      </c>
+      <c r="R6" s="1">
+        <v>187.18137362879418</v>
+      </c>
+      <c r="S6" s="1">
+        <v>73.198051014909367</v>
+      </c>
+      <c r="T6" s="1">
+        <v>-3.9579576777915122</v>
+      </c>
+      <c r="U6" s="1">
+        <v>87.15929151166722</v>
+      </c>
+      <c r="V6" s="1">
+        <v>-257.75227835454581</v>
+      </c>
+      <c r="W6" s="1">
+        <v>-181.24010299787096</v>
+      </c>
+      <c r="X6" s="1">
+        <v>-333.60154249575805</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>-16.628450193140452</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>-220.29498769146596</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>-177.88294890650974</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>84.700727397767537</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>45001</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="1">
+        <v>1879975.8259999999</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="2">
-        <v>454.58858906928884</v>
-      </c>
-      <c r="F3" s="2">
-        <v>596.23372789115638</v>
-      </c>
-      <c r="G3" s="2">
-        <v>495.1513523204589</v>
-      </c>
-      <c r="H3" s="2">
-        <v>509.67407428604122</v>
-      </c>
-      <c r="I3" s="2">
-        <v>456.21415660033023</v>
-      </c>
-      <c r="J3" s="2">
-        <v>455.56884057971024</v>
-      </c>
-      <c r="K3" s="2">
-        <v>568.34223768736615</v>
-      </c>
-      <c r="L3" s="2">
-        <v>536.25506041565973</v>
-      </c>
-      <c r="M3" s="2">
-        <v>457.5564096159851</v>
-      </c>
-      <c r="N3" s="2">
-        <v>407.22321387283233</v>
-      </c>
-      <c r="O3" s="2">
-        <v>447.4947686598432</v>
-      </c>
-      <c r="P3" s="2">
-        <v>745.27186212064453</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>490.20221173122945</v>
-      </c>
-      <c r="R3" s="2">
-        <v>502.18137362879418</v>
-      </c>
-      <c r="S3" s="2">
-        <v>449.34805101490934</v>
-      </c>
-      <c r="T3" s="2">
-        <v>473.84204232220856</v>
-      </c>
-      <c r="U3" s="2">
-        <v>672.65929151166722</v>
-      </c>
-      <c r="V3" s="2">
-        <v>410.24772164545419</v>
-      </c>
-      <c r="W3" s="2">
-        <v>575.00989700212892</v>
-      </c>
-      <c r="X3" s="2">
-        <v>415.89845750424195</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>725.37154980685943</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>449.45501230853392</v>
-      </c>
-      <c r="AA3" s="2">
-        <v>377.48955109349021</v>
-      </c>
-      <c r="AB3" s="2">
-        <v>513.85072739776751</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
-        <v>45000</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="2">
-        <v>462.23389077949724</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="E7" s="1">
+        <v>116259.05</v>
+      </c>
+      <c r="F7" s="1">
+        <v>63354.023000000001</v>
+      </c>
+      <c r="G7" s="1">
+        <v>62574.355000000003</v>
+      </c>
+      <c r="H7" s="1">
+        <v>117165.871</v>
+      </c>
+      <c r="I7" s="1">
+        <v>85449.673999999999</v>
+      </c>
+      <c r="J7" s="1">
+        <v>119560.068</v>
+      </c>
+      <c r="K7" s="1">
+        <v>76209.931000000011</v>
+      </c>
+      <c r="L7" s="1">
+        <v>65667.347000000009</v>
+      </c>
+      <c r="M7" s="1">
+        <v>72963.796000000002</v>
+      </c>
+      <c r="N7" s="1">
+        <v>62840.262000000002</v>
+      </c>
+      <c r="O7" s="1">
+        <v>67664.78</v>
+      </c>
+      <c r="P7" s="1">
+        <v>63053.712000000007</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>99795.749000000011</v>
+      </c>
+      <c r="R7" s="1">
+        <v>50658.832999999999</v>
+      </c>
+      <c r="S7" s="1">
+        <v>86596.112000000008</v>
+      </c>
+      <c r="T7" s="1">
+        <v>47063.264000000003</v>
+      </c>
+      <c r="U7" s="1">
+        <v>76628.698999999993</v>
+      </c>
+      <c r="V7" s="1">
+        <v>69650.106</v>
+      </c>
+      <c r="W7" s="1">
+        <v>83681.964999999997</v>
+      </c>
+      <c r="X7" s="1">
+        <v>96597.128999999986</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>106598.46699999998</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>53810.129000000001</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>89481.724000000002</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>46650.78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>45001</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="1">
+        <v>4507.28</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>186.91</v>
+      </c>
+      <c r="F8" s="1">
+        <v>163.84</v>
+      </c>
+      <c r="G8" s="1">
+        <v>207.62</v>
+      </c>
+      <c r="H8" s="1">
+        <v>192.56</v>
+      </c>
+      <c r="I8" s="1">
+        <v>209.63</v>
+      </c>
+      <c r="J8" s="1">
+        <v>237.51000000000002</v>
+      </c>
+      <c r="K8" s="1">
+        <v>176.09</v>
+      </c>
+      <c r="L8" s="1">
+        <v>183.76999999999998</v>
+      </c>
+      <c r="M8" s="1">
+        <v>214.24</v>
+      </c>
+      <c r="N8" s="1">
+        <v>159.94999999999999</v>
+      </c>
+      <c r="O8" s="1">
+        <v>178.81</v>
+      </c>
+      <c r="P8" s="1">
+        <v>239.45</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>207.32999999999998</v>
+      </c>
+      <c r="R8" s="1">
+        <v>143.58999999999997</v>
+      </c>
+      <c r="S8" s="1">
+        <v>169.06</v>
+      </c>
+      <c r="T8" s="1">
+        <v>109.69999999999999</v>
+      </c>
+      <c r="U8" s="1">
+        <v>200.1</v>
+      </c>
+      <c r="V8" s="1">
+        <v>226.61999999999998</v>
+      </c>
+      <c r="W8" s="1">
+        <v>166.02999999999997</v>
+      </c>
+      <c r="X8" s="1">
+        <v>199.56</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>239.80999999999997</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>125.17000000000002</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>189.35</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>180.58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>45001</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="1">
+        <v>417.09763449353045</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="2">
-        <v>345.3</v>
-      </c>
-      <c r="F4" s="2">
-        <v>301.74999999999994</v>
-      </c>
-      <c r="G4" s="2">
-        <v>284.75</v>
-      </c>
-      <c r="H4" s="2">
-        <v>252.75</v>
-      </c>
-      <c r="I4" s="2">
-        <v>262.25</v>
-      </c>
-      <c r="J4" s="2">
-        <v>302.75</v>
-      </c>
-      <c r="K4" s="2">
-        <v>401.05</v>
-      </c>
-      <c r="L4" s="2">
-        <v>489.25000000000006</v>
-      </c>
-      <c r="M4" s="2">
-        <v>528.75000000000011</v>
-      </c>
-      <c r="N4" s="2">
-        <v>509.25</v>
-      </c>
-      <c r="O4" s="2">
-        <v>448.35000000000008</v>
-      </c>
-      <c r="P4" s="2">
-        <v>399.20000000000005</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>294</v>
-      </c>
-      <c r="R4" s="2">
-        <v>315</v>
-      </c>
-      <c r="S4" s="2">
-        <v>376.15</v>
-      </c>
-      <c r="T4" s="2">
-        <v>477.80000000000007</v>
-      </c>
-      <c r="U4" s="2">
-        <v>585.5</v>
-      </c>
-      <c r="V4" s="2">
-        <v>668</v>
-      </c>
-      <c r="W4" s="2">
-        <v>756.24999999999989</v>
-      </c>
-      <c r="X4" s="2">
-        <v>749.5</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>741.99999999999989</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>669.74999999999989</v>
-      </c>
-      <c r="AA4" s="2">
-        <v>555.37249999999995</v>
-      </c>
-      <c r="AB4" s="2">
-        <v>429.15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
-        <v>45000</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="2">
-        <v>4137.4100000000008</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2">
-        <v>131.19</v>
-      </c>
-      <c r="F5" s="2">
-        <v>147</v>
-      </c>
-      <c r="G5" s="2">
-        <v>195.22</v>
-      </c>
-      <c r="H5" s="2">
-        <v>174.73000000000002</v>
-      </c>
-      <c r="I5" s="2">
-        <v>230.14</v>
-      </c>
-      <c r="J5" s="2">
-        <v>182.15999999999997</v>
-      </c>
-      <c r="K5" s="2">
-        <v>149.44</v>
-      </c>
-      <c r="L5" s="2">
-        <v>103.44999999999999</v>
-      </c>
-      <c r="M5" s="2">
-        <v>160.14999999999998</v>
-      </c>
-      <c r="N5" s="2">
-        <v>173</v>
-      </c>
-      <c r="O5" s="2">
-        <v>167.07</v>
-      </c>
-      <c r="P5" s="2">
-        <v>160.13999999999999</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>154.63</v>
-      </c>
-      <c r="R5" s="2">
-        <v>226.99</v>
-      </c>
-      <c r="S5" s="2">
-        <v>167.01</v>
-      </c>
-      <c r="T5" s="2">
-        <v>235.81</v>
-      </c>
-      <c r="U5" s="2">
-        <v>118.28</v>
-      </c>
-      <c r="V5" s="2">
-        <v>230.20999999999998</v>
-      </c>
-      <c r="W5" s="2">
-        <v>173.79000000000002</v>
-      </c>
-      <c r="X5" s="2">
-        <v>194.49</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>170.86</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>146.24</v>
-      </c>
-      <c r="AA5" s="2">
-        <v>156.38</v>
-      </c>
-      <c r="AB5" s="2">
-        <v>189.03</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>45000</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="2">
-        <v>39.639491843931353</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="E9" s="1">
+        <v>622.00551067358629</v>
+      </c>
+      <c r="F9" s="1">
+        <v>386.68226928710936</v>
+      </c>
+      <c r="G9" s="1">
+        <v>301.38885945477313</v>
+      </c>
+      <c r="H9" s="1">
+        <v>608.46422413793107</v>
+      </c>
+      <c r="I9" s="1">
+        <v>407.62139960883462</v>
+      </c>
+      <c r="J9" s="1">
+        <v>503.38961727927239</v>
+      </c>
+      <c r="K9" s="1">
+        <v>432.78965869725715</v>
+      </c>
+      <c r="L9" s="1">
+        <v>357.33442346411283</v>
+      </c>
+      <c r="M9" s="1">
+        <v>340.57036967886484</v>
+      </c>
+      <c r="N9" s="1">
+        <v>392.87441075336045</v>
+      </c>
+      <c r="O9" s="1">
+        <v>378.41720261730325</v>
+      </c>
+      <c r="P9" s="1">
+        <v>263.32725830027152</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>481.3377176481938</v>
+      </c>
+      <c r="R9" s="1">
+        <v>352.80195696079119</v>
+      </c>
+      <c r="S9" s="1">
+        <v>512.22117591387678</v>
+      </c>
+      <c r="T9" s="1">
+        <v>429.01790337283506</v>
+      </c>
+      <c r="U9" s="1">
+        <v>382.95201899050471</v>
+      </c>
+      <c r="V9" s="1">
+        <v>307.34315594387084</v>
+      </c>
+      <c r="W9" s="1">
+        <v>504.01713545744752</v>
+      </c>
+      <c r="X9" s="1">
+        <v>484.05055622369207</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>444.51218464617818</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>429.89637293281135</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>472.57313968840771</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>258.33857570052049</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>45001</v>
+      </c>
+      <c r="C10">
+        <v>431.34838350402026</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="2">
-        <v>109.28858906928883</v>
-      </c>
-      <c r="F6" s="2">
-        <v>294.48372789115643</v>
-      </c>
-      <c r="G6" s="2">
-        <v>210.4013523204589</v>
-      </c>
-      <c r="H6" s="2">
-        <v>256.92407428604122</v>
-      </c>
-      <c r="I6" s="2">
-        <v>193.96415660033023</v>
-      </c>
-      <c r="J6" s="2">
-        <v>152.81884057971024</v>
-      </c>
-      <c r="K6" s="2">
-        <v>167.29223768736614</v>
-      </c>
-      <c r="L6" s="2">
-        <v>47.005060415659671</v>
-      </c>
-      <c r="M6" s="2">
-        <v>-71.19359038401501</v>
-      </c>
-      <c r="N6" s="2">
-        <v>-102.02678612716767</v>
-      </c>
-      <c r="O6" s="2">
-        <v>-0.85523134015687674</v>
-      </c>
-      <c r="P6" s="2">
-        <v>346.07186212064448</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>196.20221173122945</v>
-      </c>
-      <c r="R6" s="2">
-        <v>187.18137362879418</v>
-      </c>
-      <c r="S6" s="2">
-        <v>73.198051014909367</v>
-      </c>
-      <c r="T6" s="2">
-        <v>-3.9579576777915122</v>
-      </c>
-      <c r="U6" s="2">
-        <v>87.15929151166722</v>
-      </c>
-      <c r="V6" s="2">
-        <v>-257.75227835454581</v>
-      </c>
-      <c r="W6" s="2">
-        <v>-181.24010299787096</v>
-      </c>
-      <c r="X6" s="2">
-        <v>-333.60154249575805</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>-16.628450193140452</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>-220.29498769146596</v>
-      </c>
-      <c r="AA6" s="2">
-        <v>-177.88294890650974</v>
-      </c>
-      <c r="AB6" s="2">
-        <v>84.700727397767537</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
-        <v>45001</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="2">
-        <v>1879975.8259999999</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="2">
-        <v>116259.05</v>
-      </c>
-      <c r="F7" s="2">
-        <v>63354.023000000001</v>
-      </c>
-      <c r="G7" s="2">
-        <v>62574.355000000003</v>
-      </c>
-      <c r="H7" s="2">
-        <v>117165.871</v>
-      </c>
-      <c r="I7" s="2">
-        <v>85449.673999999999</v>
-      </c>
-      <c r="J7" s="2">
-        <v>119560.068</v>
-      </c>
-      <c r="K7" s="2">
-        <v>76209.931000000011</v>
-      </c>
-      <c r="L7" s="2">
-        <v>65667.347000000009</v>
-      </c>
-      <c r="M7" s="2">
-        <v>72963.796000000002</v>
-      </c>
-      <c r="N7" s="2">
-        <v>62840.262000000002</v>
-      </c>
-      <c r="O7" s="2">
-        <v>67664.78</v>
-      </c>
-      <c r="P7" s="2">
-        <v>63053.712000000007</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>99795.749000000011</v>
-      </c>
-      <c r="R7" s="2">
-        <v>50658.832999999999</v>
-      </c>
-      <c r="S7" s="2">
-        <v>86596.112000000008</v>
-      </c>
-      <c r="T7" s="2">
-        <v>47063.264000000003</v>
-      </c>
-      <c r="U7" s="2">
-        <v>76628.698999999993</v>
-      </c>
-      <c r="V7" s="2">
-        <v>69650.106</v>
-      </c>
-      <c r="W7" s="2">
-        <v>83681.964999999997</v>
-      </c>
-      <c r="X7" s="2">
-        <v>96597.128999999986</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>106598.46699999998</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>53810.129000000001</v>
-      </c>
-      <c r="AA7" s="2">
-        <v>89481.724000000002</v>
-      </c>
-      <c r="AB7" s="2">
-        <v>46650.78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
-        <v>45001</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="2">
-        <v>417.09763449353045</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="2">
-        <v>622.00551067358629</v>
-      </c>
-      <c r="F8" s="2">
-        <v>386.68226928710936</v>
-      </c>
-      <c r="G8" s="2">
-        <v>301.38885945477313</v>
-      </c>
-      <c r="H8" s="2">
-        <v>608.46422413793107</v>
-      </c>
-      <c r="I8" s="2">
-        <v>407.62139960883462</v>
-      </c>
-      <c r="J8" s="2">
-        <v>503.38961727927239</v>
-      </c>
-      <c r="K8" s="2">
-        <v>432.78965869725715</v>
-      </c>
-      <c r="L8" s="2">
-        <v>357.33442346411283</v>
-      </c>
-      <c r="M8" s="2">
-        <v>340.57036967886484</v>
-      </c>
-      <c r="N8" s="2">
-        <v>392.87441075336045</v>
-      </c>
-      <c r="O8" s="2">
-        <v>378.41720261730325</v>
-      </c>
-      <c r="P8" s="2">
-        <v>263.32725830027152</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>481.3377176481938</v>
-      </c>
-      <c r="R8" s="2">
-        <v>352.80195696079119</v>
-      </c>
-      <c r="S8" s="2">
-        <v>512.22117591387678</v>
-      </c>
-      <c r="T8" s="2">
-        <v>429.01790337283506</v>
-      </c>
-      <c r="U8" s="2">
-        <v>382.95201899050471</v>
-      </c>
-      <c r="V8" s="2">
-        <v>307.34315594387084</v>
-      </c>
-      <c r="W8" s="2">
-        <v>504.01713545744752</v>
-      </c>
-      <c r="X8" s="2">
-        <v>484.05055622369207</v>
-      </c>
-      <c r="Y8" s="2">
-        <v>444.51218464617818</v>
-      </c>
-      <c r="Z8" s="2">
-        <v>429.89637293281135</v>
-      </c>
-      <c r="AA8" s="2">
-        <v>472.57313968840771</v>
-      </c>
-      <c r="AB8" s="2">
-        <v>258.33857570052049</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <v>45001</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="2">
-        <v>431.34838350402026</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="E10">
         <v>347.52304170456364</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F10">
         <v>627.27694335937497</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G10">
         <v>502.38705688276661</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H10">
         <v>325.08593139800581</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I10">
         <v>395.6882174545629</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J10">
         <v>440.65795977011493</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K10">
         <v>381.61060948946562</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L10">
         <v>569.13507781465967</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M10">
         <v>428.16332407580279</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N10">
         <v>487.62218474523291</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O10">
         <v>384.75509045914652</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P10">
         <v>366.60045030277712</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q10">
         <v>506.24975582404863</v>
       </c>
-      <c r="R9" s="2">
+      <c r="R10">
         <v>504.92339247162062</v>
       </c>
-      <c r="S9" s="2">
+      <c r="S10">
         <v>540.65926268780322</v>
       </c>
-      <c r="T9" s="2">
+      <c r="T10">
         <v>469.26417889699184</v>
       </c>
-      <c r="U9" s="2">
+      <c r="U10">
         <v>319.0266384307846</v>
       </c>
-      <c r="V9" s="2">
+      <c r="V10">
         <v>403.01999646986144</v>
       </c>
-      <c r="W9" s="2">
+      <c r="W10">
         <v>312.33180720351743</v>
       </c>
-      <c r="X9" s="2">
+      <c r="X10">
         <v>337.5572790138304</v>
       </c>
-      <c r="Y9" s="2">
+      <c r="Y10">
         <v>351.95792231349822</v>
       </c>
-      <c r="Z9" s="2">
+      <c r="Z10">
         <v>513.18671247103941</v>
       </c>
-      <c r="AA9" s="2">
+      <c r="AA10">
         <v>533.62361433852652</v>
       </c>
-      <c r="AB9" s="2">
+      <c r="AB10" s="1">
         <v>440.02184018163695</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
-        <v>45001</v>
-      </c>
-      <c r="C10">
-        <v>4507.28</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <v>186.91</v>
-      </c>
-      <c r="F10">
-        <v>163.84</v>
-      </c>
-      <c r="G10">
-        <v>207.62</v>
-      </c>
-      <c r="H10">
-        <v>192.56</v>
-      </c>
-      <c r="I10">
-        <v>209.63</v>
-      </c>
-      <c r="J10">
-        <v>237.51000000000002</v>
-      </c>
-      <c r="K10">
-        <v>176.09</v>
-      </c>
-      <c r="L10">
-        <v>183.76999999999998</v>
-      </c>
-      <c r="M10">
-        <v>214.24</v>
-      </c>
-      <c r="N10">
-        <v>159.94999999999999</v>
-      </c>
-      <c r="O10">
-        <v>178.81</v>
-      </c>
-      <c r="P10">
-        <v>239.45</v>
-      </c>
-      <c r="Q10">
-        <v>207.32999999999998</v>
-      </c>
-      <c r="R10">
-        <v>143.58999999999997</v>
-      </c>
-      <c r="S10">
-        <v>169.06</v>
-      </c>
-      <c r="T10">
-        <v>109.69999999999999</v>
-      </c>
-      <c r="U10">
-        <v>200.1</v>
-      </c>
-      <c r="V10">
-        <v>226.61999999999998</v>
-      </c>
-      <c r="W10">
-        <v>166.02999999999997</v>
-      </c>
-      <c r="X10">
-        <v>199.56</v>
-      </c>
-      <c r="Y10">
-        <v>239.80999999999997</v>
-      </c>
-      <c r="Z10">
-        <v>125.17000000000002</v>
-      </c>
-      <c r="AA10">
-        <v>189.35</v>
-      </c>
-      <c r="AB10" s="2">
-        <v>180.58</v>
-      </c>
-    </row>
     <row r="11" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>45001</v>
       </c>
       <c r="C11">
         <v>-14.250749010489812</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>38</v>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="E11">
         <v>274.48246896902265</v>
@@ -1556,7 +1627,7 @@
       <c r="AA11">
         <v>-61.050474650118815</v>
       </c>
-      <c r="AB11" s="2">
+      <c r="AB11" s="1">
         <v>-181.68326448111645</v>
       </c>
     </row>
@@ -1579,440 +1650,440 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.36328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20" style="2" customWidth="1"/>
-    <col min="28" max="28" width="11" style="2"/>
+    <col min="1" max="1" width="10.36328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="1" customWidth="1"/>
+    <col min="28" max="28" width="11" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="4">
+      <c r="AB1" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>45000</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="2">
+      <c r="B2" s="5"/>
+      <c r="C2" s="1">
         <v>2076455.952</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="D2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="1">
         <v>59637.476999999999</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>87646.357999999993</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>96663.446999999986</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>89055.350999999995</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>104993.12599999999</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>82986.42</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>84933.063999999998</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>55475.585999999996</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>73277.659</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <v>70449.615999999995</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="1">
         <v>74762.951000000001</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="1">
         <v>119347.836</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="1">
         <v>75799.968000000008</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="1">
         <v>113990.15</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="1">
         <v>75045.618000000002</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="1">
         <v>111736.692</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="1">
         <v>79562.141000000003</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2" s="1">
         <v>94443.127999999997</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2" s="1">
         <v>99930.97</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="1">
         <v>80888.091000000015</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2" s="1">
         <v>123936.98300000001</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z2" s="1">
         <v>65728.301000000007</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AA2" s="1">
         <v>59031.815999999999</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AB2" s="1">
         <v>97133.202999999994</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>45000</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="2">
+      <c r="B3" s="5"/>
+      <c r="C3" s="1">
         <v>1912451.1220500001</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="D3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="1">
         <v>45299.906999999999</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>44357.249999999993</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>55588.894999999997</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>44163.007500000007</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>60354.214999999997</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>55148.939999999995</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1">
         <v>59932.911999999997</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <v>50612.912499999999</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>84679.3125</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="1">
         <v>88100.25</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="1">
         <v>74905.834500000012</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="1">
         <v>63927.888000000006</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="1">
         <v>45461.22</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="1">
         <v>71501.850000000006</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3" s="1">
         <v>62820.811499999996</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3" s="1">
         <v>112670.01800000001</v>
       </c>
-      <c r="U3" s="2">
+      <c r="U3" s="1">
         <v>69252.94</v>
       </c>
-      <c r="V3" s="2">
+      <c r="V3" s="1">
         <v>153780.28</v>
       </c>
-      <c r="W3" s="2">
+      <c r="W3" s="1">
         <v>131428.6875</v>
       </c>
-      <c r="X3" s="2">
+      <c r="X3" s="1">
         <v>145770.255</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="Y3" s="1">
         <v>126778.12</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="Z3" s="1">
         <v>97944.239999999991</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="AA3" s="1">
         <v>86849.151549999995</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AB3" s="1">
         <v>81122.224499999997</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>45000</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="B4" s="5"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="1">
         <v>14337.57</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>43289.108</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>41074.551999999989</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>44892.343499999988</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>44638.910999999993</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>27837.480000000003</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <v>25000.152000000002</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="1">
         <v>4862.6734999999971</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="1">
         <v>-11401.6535</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="1">
         <v>-17650.634000000005</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="1">
         <v>-142.88350000001083</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="1">
         <v>55419.947999999989</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="1">
         <v>30338.748000000007</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="1">
         <v>42488.299999999988</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4" s="1">
         <v>12224.806500000006</v>
       </c>
-      <c r="T4" s="2">
+      <c r="T4" s="1">
         <v>-933.32600000001548</v>
       </c>
-      <c r="U4" s="2">
+      <c r="U4" s="1">
         <v>10309.201000000001</v>
       </c>
-      <c r="V4" s="2">
+      <c r="V4" s="1">
         <v>-59337.152000000002</v>
       </c>
-      <c r="W4" s="2">
+      <c r="W4" s="1">
         <v>-31497.717499999999</v>
       </c>
-      <c r="X4" s="2">
+      <c r="X4" s="1">
         <v>-64882.16399999999</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="Y4" s="1">
         <v>-2841.1369999999879</v>
       </c>
-      <c r="Z4" s="2">
+      <c r="Z4" s="1">
         <v>-32215.938999999984</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AA4" s="1">
         <v>-27817.335549999996</v>
       </c>
-      <c r="AB4" s="2">
+      <c r="AB4" s="1">
         <v>16010.978499999997</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>45001</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="2">
+      <c r="B5" s="5"/>
+      <c r="C5" s="1">
         <v>1879975.8259999999</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="D5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="1">
         <v>116259.05</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>63354.023000000001</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>62574.355000000003</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>117165.871</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>85449.673999999999</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>119560.068</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <v>76209.931000000011</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="1">
         <v>65667.347000000009</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="1">
         <v>72963.796000000002</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="1">
         <v>62840.262000000002</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="1">
         <v>67664.78</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="1">
         <v>63053.712000000007</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="1">
         <v>99795.749000000011</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="1">
         <v>50658.832999999999</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5" s="1">
         <v>86596.112000000008</v>
       </c>
-      <c r="T5" s="2">
+      <c r="T5" s="1">
         <v>47063.264000000003</v>
       </c>
-      <c r="U5" s="2">
+      <c r="U5" s="1">
         <v>76628.698999999993</v>
       </c>
-      <c r="V5" s="2">
+      <c r="V5" s="1">
         <v>69650.106</v>
       </c>
-      <c r="W5" s="2">
+      <c r="W5" s="1">
         <v>83681.964999999997</v>
       </c>
-      <c r="X5" s="2">
+      <c r="X5" s="1">
         <v>96597.128999999986</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="Y5" s="1">
         <v>106598.46699999998</v>
       </c>
-      <c r="Z5" s="2">
+      <c r="Z5" s="1">
         <v>53810.129000000001</v>
       </c>
-      <c r="AA5" s="2">
+      <c r="AA5" s="1">
         <v>89481.724000000002</v>
       </c>
-      <c r="AB5" s="2">
+      <c r="AB5" s="1">
         <v>46650.78</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>45001</v>
       </c>
       <c r="C6">
         <v>1944207.9420000003</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>39</v>
+      <c r="D6" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="E6">
         <v>64955.531724999993</v>
@@ -2083,16 +2154,16 @@
       <c r="AA6">
         <v>101041.631375</v>
       </c>
-      <c r="AB6" s="2">
+      <c r="AB6" s="1">
         <v>79459.14390000001</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>45001</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>40</v>
+      <c r="D7" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E7">
         <v>51303.518275000009</v>
@@ -2163,12 +2234,12 @@
       <c r="AA7">
         <v>-11559.907374999995</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AB7" s="1">
         <v>-32808.363900000011</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
+      <c r="A8" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2189,596 +2260,596 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="29.6328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="29.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="4">
+      <c r="AB1" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>45000</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="2">
+      <c r="B2" s="5"/>
+      <c r="C2" s="1">
         <v>4137.4100000000008</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>131.19</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>147</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>195.22</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>174.73000000000002</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>230.14</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>182.15999999999997</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>149.44</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>103.44999999999999</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>160.14999999999998</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <v>173</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="1">
         <v>167.07</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="1">
         <v>160.13999999999999</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="1">
         <v>154.63</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="1">
         <v>226.99</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="1">
         <v>167.01</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="1">
         <v>235.81</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="1">
         <v>118.28</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2" s="1">
         <v>230.20999999999998</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2" s="1">
         <v>173.79000000000002</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="1">
         <v>194.49</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2" s="1">
         <v>170.86</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z2" s="1">
         <v>146.24</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AA2" s="1">
         <v>156.38</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AB2" s="1">
         <v>189.03</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>45000</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="2">
+      <c r="B3" s="5"/>
+      <c r="C3" s="1">
         <v>501.8733826234286</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="D3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="1">
         <v>454.58858906928884</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>596.23372789115638</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>495.1513523204589</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>509.67407428604122</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>456.21415660033023</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>455.56884057971024</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1">
         <v>568.34223768736615</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <v>536.25506041565973</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>457.5564096159851</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="1">
         <v>407.22321387283233</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="1">
         <v>447.4947686598432</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="1">
         <v>745.27186212064453</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="1">
         <v>490.20221173122945</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="1">
         <v>502.18137362879418</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3" s="1">
         <v>449.34805101490934</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3" s="1">
         <v>473.84204232220856</v>
       </c>
-      <c r="U3" s="2">
+      <c r="U3" s="1">
         <v>672.65929151166722</v>
       </c>
-      <c r="V3" s="2">
+      <c r="V3" s="1">
         <v>410.24772164545419</v>
       </c>
-      <c r="W3" s="2">
+      <c r="W3" s="1">
         <v>575.00989700212892</v>
       </c>
-      <c r="X3" s="2">
+      <c r="X3" s="1">
         <v>415.89845750424195</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="Y3" s="1">
         <v>725.37154980685943</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="Z3" s="1">
         <v>449.45501230853392</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="AA3" s="1">
         <v>377.48955109349021</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AB3" s="1">
         <v>513.85072739776751</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>45000</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="2">
+      <c r="B4" s="5"/>
+      <c r="C4" s="1">
         <v>462.23389077949724</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="1">
+        <v>345.3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>301.74999999999994</v>
+      </c>
+      <c r="G4" s="1">
+        <v>284.75</v>
+      </c>
+      <c r="H4" s="1">
+        <v>252.75</v>
+      </c>
+      <c r="I4" s="1">
+        <v>262.25</v>
+      </c>
+      <c r="J4" s="1">
+        <v>302.75</v>
+      </c>
+      <c r="K4" s="1">
+        <v>401.05</v>
+      </c>
+      <c r="L4" s="1">
+        <v>489.25000000000006</v>
+      </c>
+      <c r="M4" s="1">
+        <v>528.75000000000011</v>
+      </c>
+      <c r="N4" s="1">
+        <v>509.25</v>
+      </c>
+      <c r="O4" s="1">
+        <v>448.35000000000008</v>
+      </c>
+      <c r="P4" s="1">
+        <v>399.20000000000005</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>294</v>
+      </c>
+      <c r="R4" s="1">
+        <v>315</v>
+      </c>
+      <c r="S4" s="1">
+        <v>376.15</v>
+      </c>
+      <c r="T4" s="1">
+        <v>477.80000000000007</v>
+      </c>
+      <c r="U4" s="1">
+        <v>585.5</v>
+      </c>
+      <c r="V4" s="1">
+        <v>668</v>
+      </c>
+      <c r="W4" s="1">
+        <v>756.24999999999989</v>
+      </c>
+      <c r="X4" s="1">
+        <v>749.5</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>741.99999999999989</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>669.74999999999989</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>555.37249999999995</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>429.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>45001</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="1">
+        <v>4507.28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>186.91</v>
+      </c>
+      <c r="F5" s="1">
+        <v>163.84</v>
+      </c>
+      <c r="G5" s="1">
+        <v>207.62</v>
+      </c>
+      <c r="H5" s="1">
+        <v>192.56</v>
+      </c>
+      <c r="I5" s="1">
+        <v>209.63</v>
+      </c>
+      <c r="J5" s="1">
+        <v>237.51000000000002</v>
+      </c>
+      <c r="K5" s="1">
+        <v>176.09</v>
+      </c>
+      <c r="L5" s="1">
+        <v>183.76999999999998</v>
+      </c>
+      <c r="M5" s="1">
+        <v>214.24</v>
+      </c>
+      <c r="N5" s="1">
+        <v>159.94999999999999</v>
+      </c>
+      <c r="O5" s="1">
+        <v>178.81</v>
+      </c>
+      <c r="P5" s="1">
+        <v>239.45</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>207.32999999999998</v>
+      </c>
+      <c r="R5" s="1">
+        <v>143.58999999999997</v>
+      </c>
+      <c r="S5" s="1">
+        <v>169.06</v>
+      </c>
+      <c r="T5" s="1">
+        <v>109.69999999999999</v>
+      </c>
+      <c r="U5" s="1">
+        <v>200.1</v>
+      </c>
+      <c r="V5" s="1">
+        <v>226.61999999999998</v>
+      </c>
+      <c r="W5" s="1">
+        <v>166.02999999999997</v>
+      </c>
+      <c r="X5" s="1">
+        <v>199.56</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>239.80999999999997</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>125.17000000000002</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>189.35</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>180.58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>45001</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="1">
+        <v>417.09763449353045</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="2">
-        <v>345.3</v>
-      </c>
-      <c r="F4" s="2">
-        <v>301.74999999999994</v>
-      </c>
-      <c r="G4" s="2">
-        <v>284.75</v>
-      </c>
-      <c r="H4" s="2">
-        <v>252.75</v>
-      </c>
-      <c r="I4" s="2">
-        <v>262.25</v>
-      </c>
-      <c r="J4" s="2">
-        <v>302.75</v>
-      </c>
-      <c r="K4" s="2">
-        <v>401.05</v>
-      </c>
-      <c r="L4" s="2">
-        <v>489.25000000000006</v>
-      </c>
-      <c r="M4" s="2">
-        <v>528.75000000000011</v>
-      </c>
-      <c r="N4" s="2">
-        <v>509.25</v>
-      </c>
-      <c r="O4" s="2">
-        <v>448.35000000000008</v>
-      </c>
-      <c r="P4" s="2">
-        <v>399.20000000000005</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>294</v>
-      </c>
-      <c r="R4" s="2">
-        <v>315</v>
-      </c>
-      <c r="S4" s="2">
-        <v>376.15</v>
-      </c>
-      <c r="T4" s="2">
-        <v>477.80000000000007</v>
-      </c>
-      <c r="U4" s="2">
-        <v>585.5</v>
-      </c>
-      <c r="V4" s="2">
-        <v>668</v>
-      </c>
-      <c r="W4" s="2">
-        <v>756.24999999999989</v>
-      </c>
-      <c r="X4" s="2">
-        <v>749.5</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>741.99999999999989</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>669.74999999999989</v>
-      </c>
-      <c r="AA4" s="2">
-        <v>555.37249999999995</v>
-      </c>
-      <c r="AB4" s="2">
-        <v>429.15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="E6" s="1">
+        <v>622.00551067358629</v>
+      </c>
+      <c r="F6" s="1">
+        <v>386.68226928710936</v>
+      </c>
+      <c r="G6" s="1">
+        <v>301.38885945477313</v>
+      </c>
+      <c r="H6" s="1">
+        <v>608.46422413793107</v>
+      </c>
+      <c r="I6" s="1">
+        <v>407.62139960883462</v>
+      </c>
+      <c r="J6" s="1">
+        <v>503.38961727927239</v>
+      </c>
+      <c r="K6" s="1">
+        <v>432.78965869725715</v>
+      </c>
+      <c r="L6" s="1">
+        <v>357.33442346411283</v>
+      </c>
+      <c r="M6" s="1">
+        <v>340.57036967886484</v>
+      </c>
+      <c r="N6" s="1">
+        <v>392.87441075336045</v>
+      </c>
+      <c r="O6" s="1">
+        <v>378.41720261730325</v>
+      </c>
+      <c r="P6" s="1">
+        <v>263.32725830027152</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>481.3377176481938</v>
+      </c>
+      <c r="R6" s="1">
+        <v>352.80195696079119</v>
+      </c>
+      <c r="S6" s="1">
+        <v>512.22117591387678</v>
+      </c>
+      <c r="T6" s="1">
+        <v>429.01790337283506</v>
+      </c>
+      <c r="U6" s="1">
+        <v>382.95201899050471</v>
+      </c>
+      <c r="V6" s="1">
+        <v>307.34315594387084</v>
+      </c>
+      <c r="W6" s="1">
+        <v>504.01713545744752</v>
+      </c>
+      <c r="X6" s="1">
+        <v>484.05055622369207</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>444.51218464617818</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>429.89637293281135</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>472.57313968840771</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>258.33857570052049</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <v>45001</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="2">
-        <v>4507.28</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2">
-        <v>186.91</v>
-      </c>
-      <c r="F5" s="2">
-        <v>163.84</v>
-      </c>
-      <c r="G5" s="2">
-        <v>207.62</v>
-      </c>
-      <c r="H5" s="2">
-        <v>192.56</v>
-      </c>
-      <c r="I5" s="2">
-        <v>209.63</v>
-      </c>
-      <c r="J5" s="2">
-        <v>237.51000000000002</v>
-      </c>
-      <c r="K5" s="2">
-        <v>176.09</v>
-      </c>
-      <c r="L5" s="2">
-        <v>183.76999999999998</v>
-      </c>
-      <c r="M5" s="2">
-        <v>214.24</v>
-      </c>
-      <c r="N5" s="2">
-        <v>159.94999999999999</v>
-      </c>
-      <c r="O5" s="2">
-        <v>178.81</v>
-      </c>
-      <c r="P5" s="2">
-        <v>239.45</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>207.32999999999998</v>
-      </c>
-      <c r="R5" s="2">
-        <v>143.58999999999997</v>
-      </c>
-      <c r="S5" s="2">
-        <v>169.06</v>
-      </c>
-      <c r="T5" s="2">
-        <v>109.69999999999999</v>
-      </c>
-      <c r="U5" s="2">
-        <v>200.1</v>
-      </c>
-      <c r="V5" s="2">
-        <v>226.61999999999998</v>
-      </c>
-      <c r="W5" s="2">
-        <v>166.02999999999997</v>
-      </c>
-      <c r="X5" s="2">
-        <v>199.56</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>239.80999999999997</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>125.17000000000002</v>
-      </c>
-      <c r="AA5" s="2">
-        <v>189.35</v>
-      </c>
-      <c r="AB5" s="2">
-        <v>180.58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>45001</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="2">
-        <v>417.09763449353045</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="2">
-        <v>622.00551067358629</v>
-      </c>
-      <c r="F6" s="2">
-        <v>386.68226928710936</v>
-      </c>
-      <c r="G6" s="2">
-        <v>301.38885945477313</v>
-      </c>
-      <c r="H6" s="2">
-        <v>608.46422413793107</v>
-      </c>
-      <c r="I6" s="2">
-        <v>407.62139960883462</v>
-      </c>
-      <c r="J6" s="2">
-        <v>503.38961727927239</v>
-      </c>
-      <c r="K6" s="2">
-        <v>432.78965869725715</v>
-      </c>
-      <c r="L6" s="2">
-        <v>357.33442346411283</v>
-      </c>
-      <c r="M6" s="2">
-        <v>340.57036967886484</v>
-      </c>
-      <c r="N6" s="2">
-        <v>392.87441075336045</v>
-      </c>
-      <c r="O6" s="2">
-        <v>378.41720261730325</v>
-      </c>
-      <c r="P6" s="2">
-        <v>263.32725830027152</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>481.3377176481938</v>
-      </c>
-      <c r="R6" s="2">
-        <v>352.80195696079119</v>
-      </c>
-      <c r="S6" s="2">
-        <v>512.22117591387678</v>
-      </c>
-      <c r="T6" s="2">
-        <v>429.01790337283506</v>
-      </c>
-      <c r="U6" s="2">
-        <v>382.95201899050471</v>
-      </c>
-      <c r="V6" s="2">
-        <v>307.34315594387084</v>
-      </c>
-      <c r="W6" s="2">
-        <v>504.01713545744752</v>
-      </c>
-      <c r="X6" s="2">
-        <v>484.05055622369207</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>444.51218464617818</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>429.89637293281135</v>
-      </c>
-      <c r="AA6" s="2">
-        <v>472.57313968840771</v>
-      </c>
-      <c r="AB6" s="2">
-        <v>258.33857570052049</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
-        <v>45001</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="2">
+      <c r="B7" s="5"/>
+      <c r="C7" s="1">
         <v>431.34838350402026</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="1">
         <v>347.52304170456364</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>627.27694335937497</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>502.38705688276661</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>325.08593139800581</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>395.6882174545629</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>440.65795977011493</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="1">
         <v>381.61060948946562</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="1">
         <v>569.13507781465967</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="1">
         <v>428.16332407580279</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="1">
         <v>487.62218474523291</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="1">
         <v>384.75509045914652</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="1">
         <v>366.60045030277712</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="1">
         <v>506.24975582404863</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="1">
         <v>504.92339247162062</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7" s="1">
         <v>540.65926268780322</v>
       </c>
-      <c r="T7" s="2">
+      <c r="T7" s="1">
         <v>469.26417889699184</v>
       </c>
-      <c r="U7" s="2">
+      <c r="U7" s="1">
         <v>319.0266384307846</v>
       </c>
-      <c r="V7" s="2">
+      <c r="V7" s="1">
         <v>403.01999646986144</v>
       </c>
-      <c r="W7" s="2">
+      <c r="W7" s="1">
         <v>312.33180720351743</v>
       </c>
-      <c r="X7" s="2">
+      <c r="X7" s="1">
         <v>337.5572790138304</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Y7" s="1">
         <v>351.95792231349822</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="Z7" s="1">
         <v>513.18671247103941</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AA7" s="1">
         <v>533.62361433852652</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AB7" s="1">
         <v>440.02184018163695</v>
       </c>
     </row>
@@ -2801,7 +2872,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2812,56 +2883,56 @@
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
-      <c r="F1" s="2"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="E2" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="5">
+      <c r="A3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="3">
         <v>1076.1299999999994</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>1806.2700000000018</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>2891.0300000000007</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>2871.2600000000016</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="5">
+      <c r="A4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="3">
         <v>12.448451014437758</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>20.894560707208722</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>33.442841790740914</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>33.214146487612645</v>
       </c>
     </row>
@@ -2876,104 +2947,50 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AB1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="8.7265625" customWidth="1"/>
-    <col min="4" max="4" width="20.90625" customWidth="1"/>
-    <col min="5" max="28" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="9.1796875"/>
+    <col min="3" max="3" width="29.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.36328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" customWidth="1"/>
+    <col min="6" max="6" width="20.90625" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB1" s="4">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/江西/导出模板/市场化,月度交易合同分析结果.xlsx
+++ b/江西/导出模板/市场化,月度交易合同分析结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\python\calCase\江西\导出模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{508D7F34-0716-4507-9148-83AACEC64F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{53CFC5D2-3033-40ED-969D-41313F4AC8F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="50">
   <si>
     <t>数据项</t>
   </si>
@@ -694,7 +694,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB11"/>
+  <dimension ref="A1:AB16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
@@ -1631,6 +1631,421 @@
         <v>-181.68326448111645</v>
       </c>
     </row>
+    <row r="12" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>3956431.7780000013</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12">
+        <v>175896.527</v>
+      </c>
+      <c r="F12">
+        <v>151000.38099999999</v>
+      </c>
+      <c r="G12">
+        <v>159237.80199999997</v>
+      </c>
+      <c r="H12">
+        <v>206221.22200000001</v>
+      </c>
+      <c r="I12">
+        <v>190442.8</v>
+      </c>
+      <c r="J12">
+        <v>202546.48800000001</v>
+      </c>
+      <c r="K12">
+        <v>161142.995</v>
+      </c>
+      <c r="L12">
+        <v>121142.93299999999</v>
+      </c>
+      <c r="M12">
+        <v>146241.45499999999</v>
+      </c>
+      <c r="N12">
+        <v>133289.878</v>
+      </c>
+      <c r="O12">
+        <v>142427.731</v>
+      </c>
+      <c r="P12">
+        <v>182401.54799999998</v>
+      </c>
+      <c r="Q12">
+        <v>175595.717</v>
+      </c>
+      <c r="R12">
+        <v>164648.98300000001</v>
+      </c>
+      <c r="S12">
+        <v>161641.73000000001</v>
+      </c>
+      <c r="T12">
+        <v>158799.95600000001</v>
+      </c>
+      <c r="U12">
+        <v>156190.84</v>
+      </c>
+      <c r="V12">
+        <v>164093.234</v>
+      </c>
+      <c r="W12">
+        <v>183612.935</v>
+      </c>
+      <c r="X12">
+        <v>177485.22</v>
+      </c>
+      <c r="Y12">
+        <v>230535.44999999998</v>
+      </c>
+      <c r="Z12">
+        <v>119538.43000000001</v>
+      </c>
+      <c r="AA12">
+        <v>148513.54</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>143783.98300000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>8644.69</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>318.10000000000002</v>
+      </c>
+      <c r="F13">
+        <v>310.84000000000003</v>
+      </c>
+      <c r="G13">
+        <v>402.84000000000003</v>
+      </c>
+      <c r="H13">
+        <v>367.29000000000008</v>
+      </c>
+      <c r="I13">
+        <v>439.77</v>
+      </c>
+      <c r="J13">
+        <v>419.67</v>
+      </c>
+      <c r="K13">
+        <v>325.52999999999997</v>
+      </c>
+      <c r="L13">
+        <v>287.21999999999997</v>
+      </c>
+      <c r="M13">
+        <v>374.38999999999993</v>
+      </c>
+      <c r="N13">
+        <v>332.95</v>
+      </c>
+      <c r="O13">
+        <v>345.88</v>
+      </c>
+      <c r="P13">
+        <v>399.59</v>
+      </c>
+      <c r="Q13">
+        <v>361.96</v>
+      </c>
+      <c r="R13">
+        <v>370.58000000000004</v>
+      </c>
+      <c r="S13">
+        <v>336.07</v>
+      </c>
+      <c r="T13">
+        <v>345.51</v>
+      </c>
+      <c r="U13">
+        <v>318.38</v>
+      </c>
+      <c r="V13">
+        <v>456.82999999999993</v>
+      </c>
+      <c r="W13">
+        <v>339.82</v>
+      </c>
+      <c r="X13">
+        <v>394.05</v>
+      </c>
+      <c r="Y13">
+        <v>410.66999999999996</v>
+      </c>
+      <c r="Z13">
+        <v>271.41000000000003</v>
+      </c>
+      <c r="AA13">
+        <v>345.73</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>369.61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>457.67190934550587</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14">
+        <v>552.95984596038977</v>
+      </c>
+      <c r="F14">
+        <v>485.78169154548959</v>
+      </c>
+      <c r="G14">
+        <v>395.28796048058769</v>
+      </c>
+      <c r="H14">
+        <v>561.46702061041674</v>
+      </c>
+      <c r="I14">
+        <v>433.05091297723811</v>
+      </c>
+      <c r="J14">
+        <v>482.63275430695546</v>
+      </c>
+      <c r="K14">
+        <v>495.01734095167882</v>
+      </c>
+      <c r="L14">
+        <v>421.77749808509157</v>
+      </c>
+      <c r="M14">
+        <v>390.61260984534846</v>
+      </c>
+      <c r="N14">
+        <v>400.33001351554287</v>
+      </c>
+      <c r="O14">
+        <v>411.78365618133455</v>
+      </c>
+      <c r="P14">
+        <v>456.47175354738607</v>
+      </c>
+      <c r="Q14">
+        <v>485.12464636976466</v>
+      </c>
+      <c r="R14">
+        <v>444.30077985859998</v>
+      </c>
+      <c r="S14">
+        <v>480.97637396970873</v>
+      </c>
+      <c r="T14">
+        <v>459.61030360915748</v>
+      </c>
+      <c r="U14">
+        <v>490.57993592562349</v>
+      </c>
+      <c r="V14">
+        <v>359.19977672219431</v>
+      </c>
+      <c r="W14">
+        <v>540.3240980519098</v>
+      </c>
+      <c r="X14">
+        <v>450.41294251998477</v>
+      </c>
+      <c r="Y14">
+        <v>561.36423405654182</v>
+      </c>
+      <c r="Z14">
+        <v>440.43487712317159</v>
+      </c>
+      <c r="AA14">
+        <v>429.56509414861307</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>389.01540272178784</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>446.13040653279637</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15">
+        <v>346.60622044954408</v>
+      </c>
+      <c r="F15">
+        <v>473.3313099987131</v>
+      </c>
+      <c r="G15">
+        <v>396.91812071790287</v>
+      </c>
+      <c r="H15">
+        <v>290.67373043099451</v>
+      </c>
+      <c r="I15">
+        <v>325.8574619119085</v>
+      </c>
+      <c r="J15">
+        <v>380.79827489455994</v>
+      </c>
+      <c r="K15">
+        <v>390.53458736521981</v>
+      </c>
+      <c r="L15">
+        <v>540.36232069493769</v>
+      </c>
+      <c r="M15">
+        <v>471.19053139774036</v>
+      </c>
+      <c r="N15">
+        <v>498.8599442859288</v>
+      </c>
+      <c r="O15">
+        <v>415.47326305366028</v>
+      </c>
+      <c r="P15">
+        <v>379.66507126054205</v>
+      </c>
+      <c r="Q15">
+        <v>415.57625669963534</v>
+      </c>
+      <c r="R15">
+        <v>388.59031767769437</v>
+      </c>
+      <c r="S15">
+        <v>458.90637798672901</v>
+      </c>
+      <c r="T15">
+        <v>475.08986259442571</v>
+      </c>
+      <c r="U15">
+        <v>418.02302390225515</v>
+      </c>
+      <c r="V15">
+        <v>536.55117133288104</v>
+      </c>
+      <c r="W15">
+        <v>539.35947692896241</v>
+      </c>
+      <c r="X15">
+        <v>540.87853216596886</v>
+      </c>
+      <c r="Y15">
+        <v>514.23563773833007</v>
+      </c>
+      <c r="Z15">
+        <v>597.54548763862783</v>
+      </c>
+      <c r="AA15">
+        <v>543.4610329592457</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>434.46164443602714</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>11.541502812709496</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16">
+        <v>206.35362551084569</v>
+      </c>
+      <c r="F16">
+        <v>12.450381546776498</v>
+      </c>
+      <c r="G16">
+        <v>-1.6301602373151809</v>
+      </c>
+      <c r="H16">
+        <v>270.79329017942223</v>
+      </c>
+      <c r="I16">
+        <v>107.19345106532961</v>
+      </c>
+      <c r="J16">
+        <v>101.83447941239552</v>
+      </c>
+      <c r="K16">
+        <v>104.48275358645901</v>
+      </c>
+      <c r="L16">
+        <v>-118.58482260984613</v>
+      </c>
+      <c r="M16">
+        <v>-80.577921552391899</v>
+      </c>
+      <c r="N16">
+        <v>-98.529930770385931</v>
+      </c>
+      <c r="O16">
+        <v>-3.6896068723257258</v>
+      </c>
+      <c r="P16">
+        <v>76.806682286844023</v>
+      </c>
+      <c r="Q16">
+        <v>69.548389670129325</v>
+      </c>
+      <c r="R16">
+        <v>55.710462180905608</v>
+      </c>
+      <c r="S16">
+        <v>22.069995982979719</v>
+      </c>
+      <c r="T16">
+        <v>-15.479558985268227</v>
+      </c>
+      <c r="U16">
+        <v>72.556912023368341</v>
+      </c>
+      <c r="V16">
+        <v>-177.35139461068673</v>
+      </c>
+      <c r="W16">
+        <v>0.964621122947392</v>
+      </c>
+      <c r="X16">
+        <v>-90.465589645984096</v>
+      </c>
+      <c r="Y16">
+        <v>47.128596318211748</v>
+      </c>
+      <c r="Z16">
+        <v>-157.11061051545624</v>
+      </c>
+      <c r="AA16">
+        <v>-113.89593881063263</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>-45.446241714239306</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1642,7 +2057,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB8"/>
+  <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -2239,7 +2654,250 @@
       </c>
     </row>
     <row r="8" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>3956431.7780000013</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8">
+        <v>175896.527</v>
+      </c>
+      <c r="F8">
+        <v>151000.38099999999</v>
+      </c>
+      <c r="G8">
+        <v>159237.80199999997</v>
+      </c>
+      <c r="H8">
+        <v>206221.22200000001</v>
+      </c>
+      <c r="I8">
+        <v>190442.8</v>
+      </c>
+      <c r="J8">
+        <v>202546.48800000001</v>
+      </c>
+      <c r="K8">
+        <v>161142.995</v>
+      </c>
+      <c r="L8">
+        <v>121142.93299999999</v>
+      </c>
+      <c r="M8">
+        <v>146241.45499999999</v>
+      </c>
+      <c r="N8">
+        <v>133289.878</v>
+      </c>
+      <c r="O8">
+        <v>142427.731</v>
+      </c>
+      <c r="P8">
+        <v>182401.54799999998</v>
+      </c>
+      <c r="Q8">
+        <v>175595.717</v>
+      </c>
+      <c r="R8">
+        <v>164648.98300000001</v>
+      </c>
+      <c r="S8">
+        <v>161641.73000000001</v>
+      </c>
+      <c r="T8">
+        <v>158799.95600000001</v>
+      </c>
+      <c r="U8">
+        <v>156190.84</v>
+      </c>
+      <c r="V8">
+        <v>164093.234</v>
+      </c>
+      <c r="W8">
+        <v>183612.935</v>
+      </c>
+      <c r="X8">
+        <v>177485.22</v>
+      </c>
+      <c r="Y8">
+        <v>230535.44999999998</v>
+      </c>
+      <c r="Z8">
+        <v>119538.43000000001</v>
+      </c>
+      <c r="AA8">
+        <v>148513.54</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>143783.98300000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>3856659.0640499997</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <v>110255.43872499999</v>
+      </c>
+      <c r="F9">
+        <v>147130.30439999999</v>
+      </c>
+      <c r="G9">
+        <v>159894.49575</v>
+      </c>
+      <c r="H9">
+        <v>106761.55445</v>
+      </c>
+      <c r="I9">
+        <v>143302.336025</v>
+      </c>
+      <c r="J9">
+        <v>159809.61202499998</v>
+      </c>
+      <c r="K9">
+        <v>127130.724225</v>
+      </c>
+      <c r="L9">
+        <v>155202.86575</v>
+      </c>
+      <c r="M9">
+        <v>176409.02304999999</v>
+      </c>
+      <c r="N9">
+        <v>166095.41845</v>
+      </c>
+      <c r="O9">
+        <v>143703.89222500002</v>
+      </c>
+      <c r="P9">
+        <v>151710.36582499999</v>
+      </c>
+      <c r="Q9">
+        <v>150421.981875</v>
+      </c>
+      <c r="R9">
+        <v>144003.799925</v>
+      </c>
+      <c r="S9">
+        <v>154224.66645000002</v>
+      </c>
+      <c r="T9">
+        <v>164148.29842500002</v>
+      </c>
+      <c r="U9">
+        <v>133090.17035</v>
+      </c>
+      <c r="V9">
+        <v>245112.6716</v>
+      </c>
+      <c r="W9">
+        <v>183285.13745000001</v>
+      </c>
+      <c r="X9">
+        <v>213133.18560000003</v>
+      </c>
+      <c r="Y9">
+        <v>211181.14934999999</v>
+      </c>
+      <c r="Z9">
+        <v>162179.82079999999</v>
+      </c>
+      <c r="AA9">
+        <v>187890.78292500001</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>160581.36840000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10">
+        <v>65641.088275000016</v>
+      </c>
+      <c r="F10">
+        <v>3870.0766000000003</v>
+      </c>
+      <c r="G10">
+        <v>-656.69375000003492</v>
+      </c>
+      <c r="H10">
+        <v>99459.667550000013</v>
+      </c>
+      <c r="I10">
+        <v>47140.463974999991</v>
+      </c>
+      <c r="J10">
+        <v>42736.875975000032</v>
+      </c>
+      <c r="K10">
+        <v>34012.270774999997</v>
+      </c>
+      <c r="L10">
+        <v>-34059.932750000007</v>
+      </c>
+      <c r="M10">
+        <v>-30167.568050000002</v>
+      </c>
+      <c r="N10">
+        <v>-32805.54045</v>
+      </c>
+      <c r="O10">
+        <v>-1276.161225000018</v>
+      </c>
+      <c r="P10">
+        <v>30691.182174999994</v>
+      </c>
+      <c r="Q10">
+        <v>25173.735125000007</v>
+      </c>
+      <c r="R10">
+        <v>20645.183075000008</v>
+      </c>
+      <c r="S10">
+        <v>7417.0635499999917</v>
+      </c>
+      <c r="T10">
+        <v>-5348.3424250000098</v>
+      </c>
+      <c r="U10">
+        <v>23100.669649999996</v>
+      </c>
+      <c r="V10">
+        <v>-81019.437600000005</v>
+      </c>
+      <c r="W10">
+        <v>327.79754999998841</v>
+      </c>
+      <c r="X10">
+        <v>-35647.965600000025</v>
+      </c>
+      <c r="Y10">
+        <v>19354.30064999999</v>
+      </c>
+      <c r="Z10">
+        <v>-42641.390799999979</v>
+      </c>
+      <c r="AA10">
+        <v>-39377.242924999999</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>-16797.385399999999</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2252,7 +2910,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB7"/>
+  <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -2851,6 +3509,255 @@
       </c>
       <c r="AB7" s="1">
         <v>440.02184018163695</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>8644.69</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>318.10000000000002</v>
+      </c>
+      <c r="F8">
+        <v>310.84000000000003</v>
+      </c>
+      <c r="G8">
+        <v>402.84000000000003</v>
+      </c>
+      <c r="H8">
+        <v>367.29000000000008</v>
+      </c>
+      <c r="I8">
+        <v>439.77</v>
+      </c>
+      <c r="J8">
+        <v>419.67</v>
+      </c>
+      <c r="K8">
+        <v>325.52999999999997</v>
+      </c>
+      <c r="L8">
+        <v>287.21999999999997</v>
+      </c>
+      <c r="M8">
+        <v>374.38999999999993</v>
+      </c>
+      <c r="N8">
+        <v>332.95</v>
+      </c>
+      <c r="O8">
+        <v>345.88</v>
+      </c>
+      <c r="P8">
+        <v>399.59</v>
+      </c>
+      <c r="Q8">
+        <v>361.96</v>
+      </c>
+      <c r="R8">
+        <v>370.58000000000004</v>
+      </c>
+      <c r="S8">
+        <v>336.07</v>
+      </c>
+      <c r="T8">
+        <v>345.51</v>
+      </c>
+      <c r="U8">
+        <v>318.38</v>
+      </c>
+      <c r="V8">
+        <v>456.82999999999993</v>
+      </c>
+      <c r="W8">
+        <v>339.82</v>
+      </c>
+      <c r="X8">
+        <v>394.05</v>
+      </c>
+      <c r="Y8">
+        <v>410.66999999999996</v>
+      </c>
+      <c r="Z8">
+        <v>271.41000000000003</v>
+      </c>
+      <c r="AA8">
+        <v>345.73</v>
+      </c>
+      <c r="AB8">
+        <v>369.61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>457.67190934550587</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9">
+        <v>552.95984596038977</v>
+      </c>
+      <c r="F9">
+        <v>485.78169154548959</v>
+      </c>
+      <c r="G9">
+        <v>395.28796048058769</v>
+      </c>
+      <c r="H9">
+        <v>561.46702061041674</v>
+      </c>
+      <c r="I9">
+        <v>433.05091297723811</v>
+      </c>
+      <c r="J9">
+        <v>482.63275430695546</v>
+      </c>
+      <c r="K9">
+        <v>495.01734095167882</v>
+      </c>
+      <c r="L9">
+        <v>421.77749808509157</v>
+      </c>
+      <c r="M9">
+        <v>390.61260984534846</v>
+      </c>
+      <c r="N9">
+        <v>400.33001351554287</v>
+      </c>
+      <c r="O9">
+        <v>411.78365618133455</v>
+      </c>
+      <c r="P9">
+        <v>456.47175354738607</v>
+      </c>
+      <c r="Q9">
+        <v>485.12464636976466</v>
+      </c>
+      <c r="R9">
+        <v>444.30077985859998</v>
+      </c>
+      <c r="S9">
+        <v>480.97637396970873</v>
+      </c>
+      <c r="T9">
+        <v>459.61030360915748</v>
+      </c>
+      <c r="U9">
+        <v>490.57993592562349</v>
+      </c>
+      <c r="V9">
+        <v>359.19977672219431</v>
+      </c>
+      <c r="W9">
+        <v>540.3240980519098</v>
+      </c>
+      <c r="X9">
+        <v>450.41294251998477</v>
+      </c>
+      <c r="Y9">
+        <v>561.36423405654182</v>
+      </c>
+      <c r="Z9">
+        <v>440.43487712317159</v>
+      </c>
+      <c r="AA9">
+        <v>429.56509414861307</v>
+      </c>
+      <c r="AB9">
+        <v>389.01540272178784</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>446.13040653279637</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10">
+        <v>346.60622044954408</v>
+      </c>
+      <c r="F10">
+        <v>473.3313099987131</v>
+      </c>
+      <c r="G10">
+        <v>396.91812071790287</v>
+      </c>
+      <c r="H10">
+        <v>290.67373043099451</v>
+      </c>
+      <c r="I10">
+        <v>325.8574619119085</v>
+      </c>
+      <c r="J10">
+        <v>380.79827489455994</v>
+      </c>
+      <c r="K10">
+        <v>390.53458736521981</v>
+      </c>
+      <c r="L10">
+        <v>540.36232069493769</v>
+      </c>
+      <c r="M10">
+        <v>471.19053139774036</v>
+      </c>
+      <c r="N10">
+        <v>498.8599442859288</v>
+      </c>
+      <c r="O10">
+        <v>415.47326305366028</v>
+      </c>
+      <c r="P10">
+        <v>379.66507126054205</v>
+      </c>
+      <c r="Q10">
+        <v>415.57625669963534</v>
+      </c>
+      <c r="R10">
+        <v>388.59031767769437</v>
+      </c>
+      <c r="S10">
+        <v>458.90637798672901</v>
+      </c>
+      <c r="T10">
+        <v>475.08986259442571</v>
+      </c>
+      <c r="U10">
+        <v>418.02302390225515</v>
+      </c>
+      <c r="V10">
+        <v>536.55117133288104</v>
+      </c>
+      <c r="W10">
+        <v>539.35947692896241</v>
+      </c>
+      <c r="X10">
+        <v>540.87853216596886</v>
+      </c>
+      <c r="Y10">
+        <v>514.23563773833007</v>
+      </c>
+      <c r="Z10">
+        <v>597.54548763862783</v>
+      </c>
+      <c r="AA10">
+        <v>543.4610329592457</v>
+      </c>
+      <c r="AB10">
+        <v>434.46164443602714</v>
       </c>
     </row>
   </sheetData>
